--- a/biology/Écologie/Anoxie_(pédologie)/Anoxie_(pédologie).xlsx
+++ b/biology/Écologie/Anoxie_(pédologie)/Anoxie_(pédologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anoxie_(p%C3%A9dologie)</t>
+          <t>Anoxie_(pédologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de la science des sols (pédologie), l'anoxie désigne le manque total d'oxygène d'un sol.
 Les sols riches en fer prennent généralement une teinte verdâtre ou grise en l'absence d'oxygène alors qu'ils sont rouges ou rougeâtres dans le cas contraire.
